--- a/storage/exports/REKAP LAPORAN KEUANGAN JANUARI-DESEMBER 2018.xlsx
+++ b/storage/exports/REKAP LAPORAN KEUANGAN JANUARI-DESEMBER 2018.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>REKAPITULASI LAPORAN KEUANGAN</t>
   </si>
@@ -62,22 +62,16 @@
     <t>December</t>
   </si>
   <si>
-    <t>Rutin</t>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Giro PKU</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>Spektrofotometer Reflektans berbasis CCD sebagai Alat   Bantu Kendali Mutu Simplisia Tumbuhan Obat</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Cash</t>
-  </si>
-  <si>
-    <t>Giro PKU</t>
   </si>
 </sst>
 </file>
@@ -146,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
@@ -159,24 +153,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="164" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
@@ -499,10 +481,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -586,322 +568,234 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="7">
-        <v>105000</v>
-      </c>
-      <c r="H3" s="7">
-        <v>105000</v>
-      </c>
-      <c r="I3" s="7">
-        <v>105000</v>
-      </c>
-      <c r="J3" s="7">
-        <v>105000</v>
-      </c>
-      <c r="K3" s="7">
-        <v>105000</v>
-      </c>
-      <c r="L3" s="7">
-        <v>105000</v>
-      </c>
-      <c r="M3" s="7">
-        <v>105000</v>
-      </c>
-      <c r="N3" s="7">
-        <v>105000</v>
+      <c r="B3" s="2"/>
+      <c r="C3" s="5">
+        <f>SUM(C3:C2)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <f>SUM(D3:D2)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <f>SUM(E3:E2)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <f>SUM(F3:F2)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <f>SUM(G3:G2)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <f>SUM(H3:H2)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <f>SUM(I3:I2)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <f>SUM(J3:J2)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <f>SUM(K3:K2)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <f>SUM(L3:L2)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <f>SUM(M3:M2)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <f>SUM(N3:N2)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="7">
-        <v>200000</v>
-      </c>
-      <c r="H4" s="7">
-        <v>200000</v>
-      </c>
-      <c r="I4" s="7">
-        <v>200000</v>
-      </c>
-      <c r="J4" s="7">
-        <v>200000</v>
-      </c>
-      <c r="K4" s="7">
-        <v>200000</v>
-      </c>
-      <c r="L4" s="7">
-        <v>200000</v>
-      </c>
-      <c r="M4" s="7">
-        <v>200000</v>
-      </c>
-      <c r="N4" s="7">
-        <v>200000</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="8">
-        <f>SUM(C3:C4)</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="8">
-        <f>SUM(D3:D4)</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="8">
-        <f>SUM(E3:E4)</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="8">
-        <f>SUM(F3:F4)</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="8">
-        <f>SUM(G3:G4)</f>
-        <v>305000</v>
-      </c>
-      <c r="H5" s="8">
-        <f>SUM(H3:H4)</f>
-        <v>305000</v>
-      </c>
-      <c r="I5" s="8">
-        <f>SUM(I3:I4)</f>
-        <v>305000</v>
-      </c>
-      <c r="J5" s="8">
-        <f>SUM(J3:J4)</f>
-        <v>305000</v>
-      </c>
-      <c r="K5" s="8">
-        <f>SUM(K3:K4)</f>
-        <v>305000</v>
-      </c>
-      <c r="L5" s="8">
-        <f>SUM(L3:L4)</f>
-        <v>305000</v>
-      </c>
-      <c r="M5" s="8">
-        <f>SUM(M3:M4)</f>
-        <v>305000</v>
-      </c>
-      <c r="N5" s="8">
-        <f>SUM(N3:N4)</f>
-        <v>305000</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="4"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="8">
+        <v>100000000</v>
+      </c>
+      <c r="I6" s="8">
+        <v>100000000</v>
+      </c>
+      <c r="J6" s="8">
+        <v>100000000</v>
+      </c>
+      <c r="K6" s="8">
+        <v>100000000</v>
+      </c>
+      <c r="L6" s="8">
+        <v>100000000</v>
+      </c>
+      <c r="M6" s="8">
+        <v>100000000</v>
+      </c>
+      <c r="N6" s="8">
+        <v>100000000</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="8">
+        <v>-100000000</v>
+      </c>
+      <c r="I7" s="8">
+        <v>-100000000</v>
+      </c>
+      <c r="J7" s="8">
+        <v>-100000000</v>
+      </c>
+      <c r="K7" s="8">
+        <v>-100000000</v>
+      </c>
+      <c r="L7" s="8">
+        <v>-100000000</v>
+      </c>
+      <c r="M7" s="8">
+        <v>-100000000</v>
+      </c>
+      <c r="N7" s="8">
+        <v>-100000000</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="4"/>
-      <c r="B8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="11">
-        <v>310000</v>
-      </c>
-      <c r="H8" s="11">
-        <v>310000</v>
-      </c>
-      <c r="I8" s="11">
-        <v>310000</v>
-      </c>
-      <c r="J8" s="11">
-        <v>310000</v>
-      </c>
-      <c r="K8" s="11">
-        <v>310000</v>
-      </c>
-      <c r="L8" s="11">
-        <v>310000</v>
-      </c>
-      <c r="M8" s="11">
-        <v>310000</v>
-      </c>
-      <c r="N8" s="11">
-        <v>310000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="4"/>
-      <c r="B9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="11">
-        <v>42865000</v>
-      </c>
-      <c r="H9" s="11">
-        <v>42865000</v>
-      </c>
-      <c r="I9" s="11">
-        <v>42865000</v>
-      </c>
-      <c r="J9" s="11">
-        <v>42865000</v>
-      </c>
-      <c r="K9" s="11">
-        <v>42865000</v>
-      </c>
-      <c r="L9" s="11">
-        <v>42865000</v>
-      </c>
-      <c r="M9" s="11">
-        <v>42865000</v>
-      </c>
-      <c r="N9" s="11">
-        <v>42865000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="4"/>
-      <c r="B10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="12">
-        <f>SUM(C8:C9)</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="12">
-        <f>SUM(D8:D9)</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="12">
-        <f>SUM(E8:E9)</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="12">
-        <f>SUM(F8:F9)</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="12">
-        <f>SUM(G8:G9)</f>
-        <v>43175000</v>
-      </c>
-      <c r="H10" s="12">
-        <f>SUM(H8:H9)</f>
-        <v>43175000</v>
-      </c>
-      <c r="I10" s="12">
-        <f>SUM(I8:I9)</f>
-        <v>43175000</v>
-      </c>
-      <c r="J10" s="12">
-        <f>SUM(J8:J9)</f>
-        <v>43175000</v>
-      </c>
-      <c r="K10" s="12">
-        <f>SUM(K8:K9)</f>
-        <v>43175000</v>
-      </c>
-      <c r="L10" s="12">
-        <f>SUM(L8:L9)</f>
-        <v>43175000</v>
-      </c>
-      <c r="M10" s="12">
-        <f>SUM(M8:M9)</f>
-        <v>43175000</v>
-      </c>
-      <c r="N10" s="12">
-        <f>SUM(N8:N9)</f>
-        <v>43175000</v>
+      <c r="A8" s="3"/>
+      <c r="B8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="9">
+        <f>SUM(C6:C7)</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <f>SUM(D6:D7)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <f>SUM(E6:E7)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
+        <f>SUM(F6:F7)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <f>SUM(G6:G7)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <f>SUM(H6:H7)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
+        <f>SUM(I6:I7)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <f>SUM(J6:J7)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="9">
+        <f>SUM(K6:K7)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="9">
+        <f>SUM(L6:L7)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="9">
+        <f>SUM(M6:M7)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="9">
+        <f>SUM(N6:N7)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>

--- a/storage/exports/REKAP LAPORAN KEUANGAN JANUARI-DESEMBER 2018.xlsx
+++ b/storage/exports/REKAP LAPORAN KEUANGAN JANUARI-DESEMBER 2018.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>REKAPITULASI LAPORAN KEUANGAN</t>
   </si>
@@ -62,16 +62,31 @@
     <t>December</t>
   </si>
   <si>
+    <t>Rutin</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>The International Conference on Advanced Computer Science and Information System (ICACSIS)</t>
+  </si>
+  <si>
+    <t>Sistem Informasi Manajemen Penelitian</t>
+  </si>
+  <si>
+    <t>LPSB</t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
     <t>Giro PKU</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Cash</t>
+  </si>
+  <si>
+    <t>Taplus BNI</t>
   </si>
 </sst>
 </file>
@@ -140,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
@@ -153,12 +168,24 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="164" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
@@ -481,10 +508,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -568,234 +595,450 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="5">
-        <f>SUM(C3:C2)</f>
+      <c r="C3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="7">
+        <v>60000</v>
+      </c>
+      <c r="I3" s="7">
+        <v>60000</v>
+      </c>
+      <c r="J3" s="7">
+        <v>60000</v>
+      </c>
+      <c r="K3" s="7">
+        <v>60000</v>
+      </c>
+      <c r="L3" s="7">
+        <v>60000</v>
+      </c>
+      <c r="M3" s="7">
+        <v>60000</v>
+      </c>
+      <c r="N3" s="7">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="7">
+        <v>4000</v>
+      </c>
+      <c r="I4" s="7">
+        <v>4000</v>
+      </c>
+      <c r="J4" s="7">
+        <v>4000</v>
+      </c>
+      <c r="K4" s="7">
+        <v>4000</v>
+      </c>
+      <c r="L4" s="7">
+        <v>4000</v>
+      </c>
+      <c r="M4" s="7">
+        <v>4000</v>
+      </c>
+      <c r="N4" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="7">
+        <v>50000</v>
+      </c>
+      <c r="H5" s="7">
+        <v>50000</v>
+      </c>
+      <c r="I5" s="7">
+        <v>50000</v>
+      </c>
+      <c r="J5" s="7">
+        <v>50000</v>
+      </c>
+      <c r="K5" s="7">
+        <v>50000</v>
+      </c>
+      <c r="L5" s="7">
+        <v>50000</v>
+      </c>
+      <c r="M5" s="7">
+        <v>50000</v>
+      </c>
+      <c r="N5" s="7">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="7">
+        <v>500000000</v>
+      </c>
+      <c r="I6" s="7">
+        <v>500000000</v>
+      </c>
+      <c r="J6" s="7">
+        <v>500000000</v>
+      </c>
+      <c r="K6" s="7">
+        <v>500000000</v>
+      </c>
+      <c r="L6" s="7">
+        <v>500000000</v>
+      </c>
+      <c r="M6" s="7">
+        <v>500000000</v>
+      </c>
+      <c r="N6" s="7">
+        <v>500000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="8">
+        <f>SUM(C3:C6)</f>
         <v>0</v>
       </c>
-      <c r="D3" s="5">
-        <f>SUM(D3:D2)</f>
+      <c r="D7" s="8">
+        <f>SUM(D3:D6)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="5">
-        <f>SUM(E3:E2)</f>
+      <c r="E7" s="8">
+        <f>SUM(E3:E6)</f>
         <v>0</v>
       </c>
-      <c r="F3" s="5">
-        <f>SUM(F3:F2)</f>
+      <c r="F7" s="8">
+        <f>SUM(F3:F6)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="5">
-        <f>SUM(G3:G2)</f>
+      <c r="G7" s="8">
+        <f>SUM(G3:G6)</f>
+        <v>50000</v>
+      </c>
+      <c r="H7" s="8">
+        <f>SUM(H3:H6)</f>
+        <v>500114000</v>
+      </c>
+      <c r="I7" s="8">
+        <f>SUM(I3:I6)</f>
+        <v>500114000</v>
+      </c>
+      <c r="J7" s="8">
+        <f>SUM(J3:J6)</f>
+        <v>500114000</v>
+      </c>
+      <c r="K7" s="8">
+        <f>SUM(K3:K6)</f>
+        <v>500114000</v>
+      </c>
+      <c r="L7" s="8">
+        <f>SUM(L3:L6)</f>
+        <v>500114000</v>
+      </c>
+      <c r="M7" s="8">
+        <f>SUM(M3:M6)</f>
+        <v>500114000</v>
+      </c>
+      <c r="N7" s="8">
+        <f>SUM(N3:N6)</f>
+        <v>500114000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="4"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="4"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="4"/>
+      <c r="B10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="11">
+        <v>50000</v>
+      </c>
+      <c r="H10" s="11">
+        <v>100050000</v>
+      </c>
+      <c r="I10" s="11">
+        <v>100050000</v>
+      </c>
+      <c r="J10" s="11">
+        <v>100050000</v>
+      </c>
+      <c r="K10" s="11">
+        <v>100050000</v>
+      </c>
+      <c r="L10" s="11">
+        <v>100050000</v>
+      </c>
+      <c r="M10" s="11">
+        <v>100050000</v>
+      </c>
+      <c r="N10" s="11">
+        <v>100050000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="4"/>
+      <c r="B11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11">
+        <v>400004000</v>
+      </c>
+      <c r="I11" s="11">
+        <v>400004000</v>
+      </c>
+      <c r="J11" s="11">
+        <v>400004000</v>
+      </c>
+      <c r="K11" s="11">
+        <v>400004000</v>
+      </c>
+      <c r="L11" s="11">
+        <v>400004000</v>
+      </c>
+      <c r="M11" s="11">
+        <v>400004000</v>
+      </c>
+      <c r="N11" s="11">
+        <v>400004000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="4"/>
+      <c r="B12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="11">
+        <v>60000</v>
+      </c>
+      <c r="I12" s="11">
+        <v>60000</v>
+      </c>
+      <c r="J12" s="11">
+        <v>60000</v>
+      </c>
+      <c r="K12" s="11">
+        <v>60000</v>
+      </c>
+      <c r="L12" s="11">
+        <v>60000</v>
+      </c>
+      <c r="M12" s="11">
+        <v>60000</v>
+      </c>
+      <c r="N12" s="11">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="4"/>
+      <c r="B13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="12">
+        <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="5">
-        <f>SUM(H3:H2)</f>
+      <c r="D13" s="12">
+        <f>SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="5">
-        <f>SUM(I3:I2)</f>
+      <c r="E13" s="12">
+        <f>SUM(E10:E12)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="5">
-        <f>SUM(J3:J2)</f>
+      <c r="F13" s="12">
+        <f>SUM(F10:F12)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="5">
-        <f>SUM(K3:K2)</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="5">
-        <f>SUM(L3:L2)</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="5">
-        <f>SUM(M3:M2)</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="5">
-        <f>SUM(N3:N2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="8">
-        <v>100000000</v>
-      </c>
-      <c r="I6" s="8">
-        <v>100000000</v>
-      </c>
-      <c r="J6" s="8">
-        <v>100000000</v>
-      </c>
-      <c r="K6" s="8">
-        <v>100000000</v>
-      </c>
-      <c r="L6" s="8">
-        <v>100000000</v>
-      </c>
-      <c r="M6" s="8">
-        <v>100000000</v>
-      </c>
-      <c r="N6" s="8">
-        <v>100000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="8">
-        <v>-100000000</v>
-      </c>
-      <c r="I7" s="8">
-        <v>-100000000</v>
-      </c>
-      <c r="J7" s="8">
-        <v>-100000000</v>
-      </c>
-      <c r="K7" s="8">
-        <v>-100000000</v>
-      </c>
-      <c r="L7" s="8">
-        <v>-100000000</v>
-      </c>
-      <c r="M7" s="8">
-        <v>-100000000</v>
-      </c>
-      <c r="N7" s="8">
-        <v>-100000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="3"/>
-      <c r="B8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="9">
-        <f>SUM(C6:C7)</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="9">
-        <f>SUM(D6:D7)</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="9">
-        <f>SUM(E6:E7)</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="9">
-        <f>SUM(F6:F7)</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
-        <f>SUM(G6:G7)</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="9">
-        <f>SUM(H6:H7)</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="9">
-        <f>SUM(I6:I7)</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
-        <f>SUM(J6:J7)</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="9">
-        <f>SUM(K6:K7)</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="9">
-        <f>SUM(L6:L7)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="9">
-        <f>SUM(M6:M7)</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="9">
-        <f>SUM(N6:N7)</f>
-        <v>0</v>
+      <c r="G13" s="12">
+        <f>SUM(G10:G12)</f>
+        <v>50000</v>
+      </c>
+      <c r="H13" s="12">
+        <f>SUM(H10:H12)</f>
+        <v>500114000</v>
+      </c>
+      <c r="I13" s="12">
+        <f>SUM(I10:I12)</f>
+        <v>500114000</v>
+      </c>
+      <c r="J13" s="12">
+        <f>SUM(J10:J12)</f>
+        <v>500114000</v>
+      </c>
+      <c r="K13" s="12">
+        <f>SUM(K10:K12)</f>
+        <v>500114000</v>
+      </c>
+      <c r="L13" s="12">
+        <f>SUM(L10:L12)</f>
+        <v>500114000</v>
+      </c>
+      <c r="M13" s="12">
+        <f>SUM(M10:M12)</f>
+        <v>500114000</v>
+      </c>
+      <c r="N13" s="12">
+        <f>SUM(N10:N12)</f>
+        <v>500114000</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>

--- a/storage/exports/REKAP LAPORAN KEUANGAN JANUARI-DESEMBER 2018.xlsx
+++ b/storage/exports/REKAP LAPORAN KEUANGAN JANUARI-DESEMBER 2018.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>REKAPITULASI LAPORAN KEUANGAN</t>
   </si>
@@ -68,10 +68,16 @@
     <t>-</t>
   </si>
   <si>
-    <t>The International Conference on Advanced Computer Science and Information System (ICACSIS)</t>
-  </si>
-  <si>
-    <t>Sistem Informasi Manajemen Penelitian</t>
+    <t>Seminar</t>
+  </si>
+  <si>
+    <t>Induksi Invitro Ekstrak Centella asiatica terhadap Proliferasi dan Differensiasi Otak Besar Anak Tikus</t>
+  </si>
+  <si>
+    <t>Sistem Informasi Manajemen Sarana dan Prasarana</t>
+  </si>
+  <si>
+    <t>Penelitian dan pengembangan produk herbal berbasis nanokurkuminoid</t>
   </si>
   <si>
     <t>LPSB</t>
@@ -80,10 +86,10 @@
     <t>Total</t>
   </si>
   <si>
+    <t>Cash</t>
+  </si>
+  <si>
     <t>Giro PKU</t>
-  </si>
-  <si>
-    <t>Cash</t>
   </si>
   <si>
     <t>Taplus BNI</t>
@@ -508,10 +514,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -616,27 +622,15 @@
       <c r="G3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="7">
-        <v>60000</v>
-      </c>
-      <c r="I3" s="7">
-        <v>60000</v>
-      </c>
-      <c r="J3" s="7">
-        <v>60000</v>
-      </c>
-      <c r="K3" s="7">
-        <v>60000</v>
-      </c>
-      <c r="L3" s="7">
-        <v>60000</v>
-      </c>
-      <c r="M3" s="7">
-        <v>60000</v>
-      </c>
-      <c r="N3" s="7">
-        <v>60000</v>
-      </c>
+      <c r="H3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="3">
@@ -660,26 +654,26 @@
       <c r="G4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="7">
-        <v>4000</v>
+      <c r="H4" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I4" s="7">
-        <v>4000</v>
+        <v>10000000</v>
       </c>
       <c r="J4" s="7">
-        <v>4000</v>
+        <v>10000000</v>
       </c>
       <c r="K4" s="7">
-        <v>4000</v>
+        <v>10000000</v>
       </c>
       <c r="L4" s="7">
-        <v>4000</v>
+        <v>10000000</v>
       </c>
       <c r="M4" s="7">
-        <v>4000</v>
+        <v>10000000</v>
       </c>
       <c r="N4" s="7">
-        <v>4000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -701,30 +695,18 @@
       <c r="F5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="7">
-        <v>50000</v>
-      </c>
-      <c r="H5" s="7">
-        <v>50000</v>
-      </c>
-      <c r="I5" s="7">
-        <v>50000</v>
-      </c>
-      <c r="J5" s="7">
-        <v>50000</v>
-      </c>
-      <c r="K5" s="7">
-        <v>50000</v>
-      </c>
-      <c r="L5" s="7">
-        <v>50000</v>
-      </c>
-      <c r="M5" s="7">
-        <v>50000</v>
-      </c>
-      <c r="N5" s="7">
-        <v>50000</v>
-      </c>
+      <c r="G5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="3">
@@ -748,195 +730,179 @@
       <c r="G6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7">
+        <v>5000000</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="7">
         <v>500000000</v>
       </c>
-      <c r="I6" s="7">
+      <c r="J8" s="7">
         <v>500000000</v>
       </c>
-      <c r="J6" s="7">
+      <c r="K8" s="7">
         <v>500000000</v>
       </c>
-      <c r="K6" s="7">
+      <c r="L8" s="7">
         <v>500000000</v>
       </c>
-      <c r="L6" s="7">
+      <c r="M8" s="7">
         <v>500000000</v>
       </c>
-      <c r="M6" s="7">
+      <c r="N8" s="7">
         <v>500000000</v>
       </c>
-      <c r="N6" s="7">
-        <v>500000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="8">
-        <f>SUM(C3:C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="8">
-        <f>SUM(D3:D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="8">
-        <f>SUM(E3:E6)</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="8">
-        <f>SUM(F3:F6)</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="8">
-        <f>SUM(G3:G6)</f>
-        <v>50000</v>
-      </c>
-      <c r="H7" s="8">
-        <f>SUM(H3:H6)</f>
-        <v>500114000</v>
-      </c>
-      <c r="I7" s="8">
-        <f>SUM(I3:I6)</f>
-        <v>500114000</v>
-      </c>
-      <c r="J7" s="8">
-        <f>SUM(J3:J6)</f>
-        <v>500114000</v>
-      </c>
-      <c r="K7" s="8">
-        <f>SUM(K3:K6)</f>
-        <v>500114000</v>
-      </c>
-      <c r="L7" s="8">
-        <f>SUM(L3:L6)</f>
-        <v>500114000</v>
-      </c>
-      <c r="M7" s="8">
-        <f>SUM(M3:M6)</f>
-        <v>500114000</v>
-      </c>
-      <c r="N7" s="8">
-        <f>SUM(N3:N6)</f>
-        <v>500114000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="4"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="4"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="8">
+        <f>SUM(C3:C8)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="8">
+        <f>SUM(D3:D8)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <f>SUM(E3:E8)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <f>SUM(F3:F8)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <f>SUM(G3:G8)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
+        <f>SUM(H3:H8)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
+        <f>SUM(I3:I8)</f>
+        <v>510000000</v>
+      </c>
+      <c r="J9" s="8">
+        <f>SUM(J3:J8)</f>
+        <v>515000000</v>
+      </c>
+      <c r="K9" s="8">
+        <f>SUM(K3:K8)</f>
+        <v>510000000</v>
+      </c>
+      <c r="L9" s="8">
+        <f>SUM(L3:L8)</f>
+        <v>510000000</v>
+      </c>
+      <c r="M9" s="8">
+        <f>SUM(M3:M8)</f>
+        <v>510000000</v>
+      </c>
+      <c r="N9" s="8">
+        <f>SUM(N3:N8)</f>
+        <v>510000000</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="4"/>
-      <c r="B10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="11">
-        <v>50000</v>
-      </c>
-      <c r="H10" s="11">
-        <v>100050000</v>
-      </c>
-      <c r="I10" s="11">
-        <v>100050000</v>
-      </c>
-      <c r="J10" s="11">
-        <v>100050000</v>
-      </c>
-      <c r="K10" s="11">
-        <v>100050000</v>
-      </c>
-      <c r="L10" s="11">
-        <v>100050000</v>
-      </c>
-      <c r="M10" s="11">
-        <v>100050000</v>
-      </c>
-      <c r="N10" s="11">
-        <v>100050000</v>
-      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="4"/>
-      <c r="B11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="11">
-        <v>400004000</v>
-      </c>
-      <c r="I11" s="11">
-        <v>400004000</v>
-      </c>
-      <c r="J11" s="11">
-        <v>400004000</v>
-      </c>
-      <c r="K11" s="11">
-        <v>400004000</v>
-      </c>
-      <c r="L11" s="11">
-        <v>400004000</v>
-      </c>
-      <c r="M11" s="11">
-        <v>400004000</v>
-      </c>
-      <c r="N11" s="11">
-        <v>400004000</v>
-      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="4"/>
@@ -958,87 +924,171 @@
       <c r="G12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="11">
-        <v>60000</v>
+      <c r="H12" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="I12" s="11">
-        <v>60000</v>
+        <v>459000000</v>
       </c>
       <c r="J12" s="11">
-        <v>60000</v>
+        <v>459000000</v>
       </c>
       <c r="K12" s="11">
-        <v>60000</v>
+        <v>459000000</v>
       </c>
       <c r="L12" s="11">
-        <v>60000</v>
+        <v>459000000</v>
       </c>
       <c r="M12" s="11">
-        <v>60000</v>
+        <v>459000000</v>
       </c>
       <c r="N12" s="11">
-        <v>60000</v>
+        <v>459000000</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="4"/>
-      <c r="B13" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="12">
-        <f>SUM(C10:C12)</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="12">
-        <f>SUM(D10:D12)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="12">
-        <f>SUM(E10:E12)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="12">
-        <f>SUM(F10:F12)</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="12">
-        <f>SUM(G10:G12)</f>
-        <v>50000</v>
-      </c>
-      <c r="H13" s="12">
-        <f>SUM(H10:H12)</f>
-        <v>500114000</v>
-      </c>
-      <c r="I13" s="12">
-        <f>SUM(I10:I12)</f>
-        <v>500114000</v>
-      </c>
-      <c r="J13" s="12">
-        <f>SUM(J10:J12)</f>
-        <v>500114000</v>
-      </c>
-      <c r="K13" s="12">
-        <f>SUM(K10:K12)</f>
-        <v>500114000</v>
-      </c>
-      <c r="L13" s="12">
-        <f>SUM(L10:L12)</f>
-        <v>500114000</v>
-      </c>
-      <c r="M13" s="12">
-        <f>SUM(M10:M12)</f>
-        <v>500114000</v>
-      </c>
-      <c r="N13" s="12">
-        <f>SUM(N10:N12)</f>
-        <v>500114000</v>
+      <c r="B13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="11">
+        <v>-4000000</v>
+      </c>
+      <c r="J13" s="11">
+        <v>-4000000</v>
+      </c>
+      <c r="K13" s="11">
+        <v>-4000000</v>
+      </c>
+      <c r="L13" s="11">
+        <v>-4000000</v>
+      </c>
+      <c r="M13" s="11">
+        <v>-4000000</v>
+      </c>
+      <c r="N13" s="11">
+        <v>-4000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="4"/>
+      <c r="B14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="11">
+        <v>50000000</v>
+      </c>
+      <c r="J14" s="11">
+        <v>50000000</v>
+      </c>
+      <c r="K14" s="11">
+        <v>50000000</v>
+      </c>
+      <c r="L14" s="11">
+        <v>50000000</v>
+      </c>
+      <c r="M14" s="11">
+        <v>50000000</v>
+      </c>
+      <c r="N14" s="11">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="4"/>
+      <c r="B15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="12">
+        <f>SUM(C12:C14)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="12">
+        <f>SUM(D12:D14)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="12">
+        <f>SUM(E12:E14)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="12">
+        <f>SUM(F12:F14)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="12">
+        <f>SUM(G12:G14)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="12">
+        <f>SUM(H12:H14)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="12">
+        <f>SUM(I12:I14)</f>
+        <v>505000000</v>
+      </c>
+      <c r="J15" s="12">
+        <f>SUM(J12:J14)</f>
+        <v>505000000</v>
+      </c>
+      <c r="K15" s="12">
+        <f>SUM(K12:K14)</f>
+        <v>505000000</v>
+      </c>
+      <c r="L15" s="12">
+        <f>SUM(L12:L14)</f>
+        <v>505000000</v>
+      </c>
+      <c r="M15" s="12">
+        <f>SUM(M12:M14)</f>
+        <v>505000000</v>
+      </c>
+      <c r="N15" s="12">
+        <f>SUM(N12:N14)</f>
+        <v>505000000</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>

--- a/storage/exports/REKAP LAPORAN KEUANGAN JANUARI-DESEMBER 2018.xlsx
+++ b/storage/exports/REKAP LAPORAN KEUANGAN JANUARI-DESEMBER 2018.xlsx
@@ -701,12 +701,24 @@
       <c r="H5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
+      <c r="I5" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="K5" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1000000</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="3">
@@ -849,27 +861,27 @@
       </c>
       <c r="I9" s="8">
         <f>SUM(I3:I8)</f>
-        <v>510000000</v>
+        <v>511000000</v>
       </c>
       <c r="J9" s="8">
         <f>SUM(J3:J8)</f>
-        <v>515000000</v>
+        <v>516000000</v>
       </c>
       <c r="K9" s="8">
         <f>SUM(K3:K8)</f>
-        <v>510000000</v>
+        <v>511000000</v>
       </c>
       <c r="L9" s="8">
         <f>SUM(L3:L8)</f>
-        <v>510000000</v>
+        <v>511000000</v>
       </c>
       <c r="M9" s="8">
         <f>SUM(M3:M8)</f>
-        <v>510000000</v>
+        <v>511000000</v>
       </c>
       <c r="N9" s="8">
         <f>SUM(N3:N8)</f>
-        <v>510000000</v>
+        <v>511000000</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1012,22 +1024,22 @@
         <v>16</v>
       </c>
       <c r="I14" s="11">
-        <v>50000000</v>
+        <v>51000000</v>
       </c>
       <c r="J14" s="11">
-        <v>50000000</v>
+        <v>51000000</v>
       </c>
       <c r="K14" s="11">
-        <v>50000000</v>
+        <v>51000000</v>
       </c>
       <c r="L14" s="11">
-        <v>50000000</v>
+        <v>51000000</v>
       </c>
       <c r="M14" s="11">
-        <v>50000000</v>
+        <v>51000000</v>
       </c>
       <c r="N14" s="11">
-        <v>50000000</v>
+        <v>51000000</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1061,27 +1073,27 @@
       </c>
       <c r="I15" s="12">
         <f>SUM(I12:I14)</f>
-        <v>505000000</v>
+        <v>506000000</v>
       </c>
       <c r="J15" s="12">
         <f>SUM(J12:J14)</f>
-        <v>505000000</v>
+        <v>506000000</v>
       </c>
       <c r="K15" s="12">
         <f>SUM(K12:K14)</f>
-        <v>505000000</v>
+        <v>506000000</v>
       </c>
       <c r="L15" s="12">
         <f>SUM(L12:L14)</f>
-        <v>505000000</v>
+        <v>506000000</v>
       </c>
       <c r="M15" s="12">
         <f>SUM(M12:M14)</f>
-        <v>505000000</v>
+        <v>506000000</v>
       </c>
       <c r="N15" s="12">
         <f>SUM(N12:N14)</f>
-        <v>505000000</v>
+        <v>506000000</v>
       </c>
     </row>
   </sheetData>
